--- a/Tutorial/My projects/My Portfolio/Statistics.xlsx
+++ b/Tutorial/My projects/My Portfolio/Statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007599426025498529</v>
+        <v>0.007583692224203503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4367228292124319</v>
+        <v>0.4391619553311629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1947743591842568</v>
+        <v>0.194572513446317</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04519082639939527</v>
+        <v>0.04514955934143219</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007249209297896929</v>
+        <v>0.007234200582994451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4135403511133176</v>
+        <v>0.4188033614631229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4297603988790709</v>
+        <v>0.4293144845826624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08808853299216472</v>
+        <v>0.0880238353129781</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001343945280097802</v>
+        <v>-0.001341162784693873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5864047991909384</v>
+        <v>0.5871709323758949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2108137769337095</v>
+        <v>0.210594985777164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09845992696337565</v>
+        <v>0.09844525387137125</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002366103067801397</v>
+        <v>-0.002361204303685866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4117276009457776</v>
+        <v>0.4382668741649042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1521054631849735</v>
+        <v>0.1519476336520654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05547896032236014</v>
+        <v>0.0555209587766058</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005927344186262569</v>
+        <v>0.005915072252129519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5447349265501636</v>
+        <v>0.5446635761522398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1068241548570932</v>
+        <v>0.1067136247020446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02656566982090889</v>
+        <v>0.02654926617877797</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.008276636300623245</v>
+        <v>-0.008259500407661293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5827773836993244</v>
+        <v>0.5929733520400338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1724596060644883</v>
+        <v>0.1722810247887226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0801513700502919</v>
+        <v>0.08014817881042202</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003216279564996508</v>
+        <v>0.003209620601093824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6768655225443143</v>
+        <v>0.6973500738677669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2784357076199135</v>
+        <v>0.2781467624323112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08366854137697025</v>
+        <v>0.08361292333238486</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009969677077994989</v>
+        <v>-0.009949035924624398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5745377339419528</v>
+        <v>0.5752935888060694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2246876527490841</v>
+        <v>0.2244549116666649</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1156102579132973</v>
+        <v>0.1156103251459202</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009782248486931576</v>
+        <v>0.0006950183342122699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4236488553126495</v>
+        <v>0.4531813946218111</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1875560038403438</v>
+        <v>0.1874646958355251</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02134826292722182</v>
+        <v>0.0213303314342743</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.007603256498782138</v>
+        <v>-0.007587514766900601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6121062226150296</v>
+        <v>0.6232552650927289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3607796597970159</v>
+        <v>0.3604053787687483</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1591568987887927</v>
+        <v>0.1592061054918643</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001011226001927828</v>
+        <v>-0.00100913236631307</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6526412500622549</v>
+        <v>0.655809616366313</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1518569389619748</v>
+        <v>0.1516993362048366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04072698807681659</v>
+        <v>0.04071489019504188</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004713620569059715</v>
+        <v>-2.781304057549564e-17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.465607236823667</v>
+        <v>0.4747563278230189</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5911872588485465</v>
+        <v>0.5906645243792101</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08994264136366401</v>
+        <v>0.08986426341005095</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01129834256630703</v>
+        <v>0.01127495055271219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5369882858312612</v>
+        <v>0.5402638429872133</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3514642163179793</v>
+        <v>0.3510998139591944</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07375326618477997</v>
+        <v>0.07368820104220086</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.009459395436791166</v>
+        <v>-0.009439810767149778</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5454612658578794</v>
+        <v>0.5483915725761019</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161635892811227</v>
+        <v>0.1614687073359332</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1067407844371417</v>
+        <v>0.1067477523407605</v>
       </c>
     </row>
     <row r="16">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02165575840475635</v>
+        <v>0.02161092246603014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4730773443326741</v>
+        <v>0.4842984192449983</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3596711539064207</v>
+        <v>0.3592992085137503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1275129711391185</v>
+        <v>0.1274182744398169</v>
       </c>
     </row>
     <row r="17">
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.004409189590238135</v>
+        <v>-0.005201524107832577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4228134054090094</v>
+        <v>0.4234608676886672</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4229228920487975</v>
+        <v>0.422842654482525</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1510719396651968</v>
+        <v>0.1509119980366686</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008432419265071902</v>
+        <v>0.008414960840092458</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5550327279418694</v>
+        <v>0.5724283454106756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3997945210221511</v>
+        <v>0.3993797653925039</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1554236912752959</v>
+        <v>0.1553701867004263</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00050998467460319</v>
+        <v>0.0002551752009745702</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5352355127903964</v>
+        <v>0.5366806416913728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7284593043121097</v>
+        <v>0.7277247958205673</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1523265089327954</v>
+        <v>0.1524096567952328</v>
       </c>
     </row>
     <row r="20">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007527117317600032</v>
+        <v>-0.007511533223774774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7150314030435083</v>
+        <v>0.715160658591476</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1818674460067893</v>
+        <v>0.1816790117080007</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08386721714193283</v>
+        <v>0.08385397402405664</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0197464909957186</v>
+        <v>0.01782946512821283</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3626176725992081</v>
+        <v>0.3630246513360748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6085010830608319</v>
+        <v>0.609327814031273</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1651850901295285</v>
+        <v>0.1650132386094825</v>
       </c>
     </row>
     <row r="22">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01711645189567646</v>
+        <v>0.01597194860349844</v>
       </c>
       <c r="C22" t="n">
-        <v>0.465943724032539</v>
+        <v>0.4713055996315534</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6341272996105284</v>
+        <v>0.6339683267960111</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1657584449816311</v>
+        <v>0.1656049803862032</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0350199447296695</v>
+        <v>0.03444764892126757</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5697490657713717</v>
+        <v>0.6058994412300485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7872747497790027</v>
+        <v>0.7865582176225234</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3242236475674685</v>
+        <v>0.324055638460285</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007083725370497328</v>
+        <v>0.007069059272421766</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4466886485282472</v>
+        <v>0.4697966559174029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2668400105911863</v>
+        <v>0.2665632567513026</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05226262655079407</v>
+        <v>0.05220968130771937</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01190101158534375</v>
+        <v>-0.01187637180980473</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5680434984548282</v>
+        <v>0.5844133271923974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2117777107148587</v>
+        <v>0.2115586032731094</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09863938203282994</v>
+        <v>0.09860025916436817</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03414698118153656</v>
+        <v>0.03382567128801861</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5380480939070389</v>
+        <v>0.5827544092068262</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6197945764917896</v>
+        <v>0.6191915697149668</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1637433764029728</v>
+        <v>0.163807649345543</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01325799673554344</v>
+        <v>-0.01304571144913306</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2544615384804111</v>
+        <v>0.2591811750769609</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5592032784681011</v>
+        <v>0.5586423727616112</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09572871016384733</v>
+        <v>0.09649148159035213</v>
       </c>
     </row>
     <row r="28">
@@ -956,16 +956,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02128677374749677</v>
+        <v>0.02124270175216034</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3913361648261131</v>
+        <v>0.4336508899641016</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5080504944590023</v>
+        <v>0.5075241217314312</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1673042983006945</v>
+        <v>0.1671720362408985</v>
       </c>
     </row>
     <row r="29">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09937694190177819</v>
+        <v>0.09789403484022299</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3092507751758857</v>
+        <v>0.3301858231836048</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9164614207709157</v>
+        <v>0.9152162180837783</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2151092856721123</v>
+        <v>0.2147727238845759</v>
       </c>
     </row>
     <row r="30">
@@ -994,16 +994,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04438991056640224</v>
+        <v>0.04189473134768912</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3787065881557699</v>
+        <v>0.3827840727738596</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6986385204314037</v>
+        <v>0.7000644644727796</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3883885130065778</v>
+        <v>0.3883541633954137</v>
       </c>
     </row>
     <row r="31">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.007071735743420955</v>
+        <v>0.006191535800342367</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4978713042603797</v>
+        <v>0.4988583452383596</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5178781330492672</v>
+        <v>0.5177021720913639</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08920903511671423</v>
+        <v>0.08938425441998503</v>
       </c>
     </row>
     <row r="32">
@@ -1032,16 +1032,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.009299683944534978</v>
+        <v>0.01133251815313998</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4854599087071501</v>
+        <v>0.4834132539420783</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5783576496591765</v>
+        <v>0.5794821386053124</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1395906553596787</v>
+        <v>0.1398929925479702</v>
       </c>
     </row>
     <row r="33">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05285686904663751</v>
+        <v>0.05444105491848872</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4178402614061555</v>
+        <v>0.4808440865345769</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7919831946673216</v>
+        <v>0.7919269011369534</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3472647307648333</v>
+        <v>0.3486936155836917</v>
       </c>
     </row>
     <row r="34">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02570874189489923</v>
+        <v>0.0256555146860071</v>
       </c>
       <c r="C34" t="n">
-        <v>0.366833326748523</v>
+        <v>0.3909758398169211</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5237018088709861</v>
+        <v>0.5231595754958333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2485890384041538</v>
+        <v>0.2484870924471906</v>
       </c>
     </row>
     <row r="35">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.002984275319051349</v>
+        <v>-0.002978096695202381</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4041463881235331</v>
+        <v>0.4199274932301824</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5823224174410512</v>
+        <v>0.581718050752609</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09415876628781425</v>
+        <v>0.09412142235800772</v>
       </c>
     </row>
     <row r="36">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01772802837755774</v>
+        <v>-0.01769132438505762</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5122117624206062</v>
+        <v>0.5122829099016731</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5338080306971157</v>
+        <v>0.5332546105291154</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2881520351697353</v>
+        <v>0.2882314238924919</v>
       </c>
     </row>
     <row r="37">
@@ -1127,130 +1127,168 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08437379619797941</v>
+        <v>0.0839262632317533</v>
       </c>
       <c r="C37" t="n">
-        <v>0.332936888057581</v>
+        <v>0.3385178070268697</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7566078400771035</v>
+        <v>0.7556863948345267</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2112780248453633</v>
+        <v>0.2111474088239285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ACIFORMULA</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.006270698674386488</v>
+        <v>-0.000400851658327197</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4504746398486663</v>
+        <v>0.5625146278608716</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4413243877973305</v>
+        <v>0.2721795536009472</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06160737186627283</v>
+        <v>0.06698261552086486</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>EXIMBANK</t>
+          <t>ACIFORMULA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.002143264788238528</v>
+        <v>0.00625771586139604</v>
       </c>
       <c r="C39" t="n">
-        <v>0.497490962605557</v>
+        <v>0.5031060981873214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2312446448307939</v>
+        <v>0.4408664370492797</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0924159176903338</v>
+        <v>0.06154815193748095</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>IFILISLMF1</t>
+          <t>EXIMBANK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.002767098921082004</v>
+        <v>-0.002138827387020643</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4718953308489431</v>
+        <v>0.5026779733311746</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3128649630027797</v>
+        <v>0.2310046605304765</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04025233637083227</v>
+        <v>0.09243796023272054</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AIBL1STIMF</t>
+          <t>IFILISLMF1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01154020229185784</v>
+        <v>-0.002761369937808542</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4177428073593421</v>
+        <v>0.4739599818267394</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1948026512189808</v>
+        <v>0.3125402711377219</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09411821841941963</v>
+        <v>0.04024591790824537</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>EXIM1STMF</t>
+          <t>AIBL1STIMF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01111968012130808</v>
+        <v>-0.0115163095334896</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6286858923444563</v>
+        <v>0.4249728655669395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3579343191713369</v>
+        <v>0.1946011773023534</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1389860765699339</v>
+        <v>0.09416072109146312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
+          <t>EXIM1STMF</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.01109665800925568</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6364454014058804</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3575631832035486</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1389273199405706</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
           <t>RECKITTBEN</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.006126821720451396</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.556342368409475</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.2204192207028943</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.07842975712250741</v>
+      <c r="B44" t="n">
+        <v>0.005815903023764328</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5902138311706845</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2202964518151829</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.07836322939846488</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>JMISMDL</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.011043144800542</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4848253665546084</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5538092716125815</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1611839577230219</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/My projects/My Portfolio/Statistics.xlsx
+++ b/Tutorial/My projects/My Portfolio/Statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007583692224203503</v>
+        <v>0.03365286677259715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4391619553311629</v>
+        <v>0.4434094891746991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194572513446317</v>
+        <v>0.8827647752603149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04514955934143219</v>
+        <v>0.0441826411927045</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007234200582994451</v>
+        <v>0.04205036455466069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4188033614631229</v>
+        <v>0.428877722450033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4293144845826624</v>
+        <v>1.940962593150439</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0880238353129781</v>
+        <v>0.08701818380134754</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001341162784693873</v>
+        <v>-0.004257744562832017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5871709323758949</v>
+        <v>0.5880528462145973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210594985777164</v>
+        <v>0.9557605185653474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09844525387137125</v>
+        <v>0.09851656850545734</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002361204303685866</v>
+        <v>-0.01237900252246709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4382668741649042</v>
+        <v>0.4532139280123447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1519476336520654</v>
+        <v>0.6892420821040929</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0555209587766058</v>
+        <v>0.05574017365644492</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005915072252129519</v>
+        <v>0.02832299821265423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5446635761522398</v>
+        <v>0.5461957232834214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1067136247020446</v>
+        <v>0.4839040852009782</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02654926617877797</v>
+        <v>0.02561016006446109</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.008259500407661293</v>
+        <v>-0.03506909943976957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5929733520400338</v>
+        <v>0.5967050797478487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1722810247887226</v>
+        <v>0.7806155382242906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08014817881042202</v>
+        <v>0.08004483894280984</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003209620601093824</v>
+        <v>0.01560856003690929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6973500738677669</v>
+        <v>0.702372989803784</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2781467624323112</v>
+        <v>1.262828943615204</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08361292333238486</v>
+        <v>0.08327869358940596</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009949035924624398</v>
+        <v>-0.04658961335933156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5752935888060694</v>
+        <v>0.5835450676319185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2244549116666649</v>
+        <v>1.018173043997194</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1156103251459202</v>
+        <v>0.1156376286289402</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006950183342122699</v>
+        <v>-0.0001866199248455154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4531813946218111</v>
+        <v>0.4544486333278106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1874646958355251</v>
+        <v>0.8480321163425169</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0213303314342743</v>
+        <v>0.02130618193838865</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.007587514766900601</v>
+        <v>-0.03237355561714485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6232552650927289</v>
+        <v>0.6212271026988461</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3604053787687483</v>
+        <v>1.635769084758878</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1592061054918643</v>
+        <v>0.1596697673654268</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00100913236631307</v>
+        <v>-0.002739208666456448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.655809616366313</v>
+        <v>0.6580053758317823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1516993362048366</v>
+        <v>0.6882411966333436</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04071489019504188</v>
+        <v>0.04075121075098553</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.781304057549564e-17</v>
+        <v>0.002241738847947355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4747563278230189</v>
+        <v>0.4780738058840448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5906645243792101</v>
+        <v>2.674900886550994</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08986426341005095</v>
+        <v>0.08979490452745749</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01127495055271219</v>
+        <v>0.05078151669859006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5402638429872133</v>
+        <v>0.5411753742414527</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3510998139591944</v>
+        <v>1.594230917360052</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07368820104220086</v>
+        <v>0.07254530269460886</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.009439810767149778</v>
+        <v>-0.0377778507044137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5483915725761019</v>
+        <v>0.561583663644073</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1614687073359332</v>
+        <v>0.7290542005722048</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1067477523407605</v>
+        <v>0.1068325166230784</v>
       </c>
     </row>
     <row r="16">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02161092246603014</v>
+        <v>0.1091447697496059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4842984192449983</v>
+        <v>0.4829128939860252</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3592992085137503</v>
+        <v>1.620945931868722</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1274182744398169</v>
+        <v>0.1253699846413636</v>
       </c>
     </row>
     <row r="17">
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.005201524107832577</v>
+        <v>-0.02617527650798552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4234608676886672</v>
+        <v>0.4341768987414185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422842654482525</v>
+        <v>1.920308508218236</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1509119980366686</v>
+        <v>0.1505264882361352</v>
       </c>
     </row>
     <row r="18">
@@ -766,529 +766,548 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008414960840092458</v>
+        <v>0.0427357797455109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5724283454106756</v>
+        <v>0.577585714567399</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993797653925039</v>
+        <v>1.809667502758367</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1553701867004263</v>
+        <v>0.1544209163900706</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HFL</t>
+          <t>NATLIFEINS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002551752009745702</v>
+        <v>-0.06213329180577229</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5366806416913728</v>
+        <v>0.2591961132736835</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7277247958205673</v>
+        <v>1.560005651874994</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1524096567952328</v>
+        <v>0.1153467310907198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>UPGDCL</t>
+          <t>HFL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007511533223774774</v>
+        <v>-0.00117727708980133</v>
       </c>
       <c r="C20" t="n">
-        <v>0.715160658591476</v>
+        <v>0.5373300712835759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1816790117080007</v>
+        <v>3.304403764977431</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08385397402405664</v>
+        <v>0.1525669338384187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DELTALIFE</t>
+          <t>UPGDCL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01782946512821283</v>
+        <v>-0.03249243394983966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3630246513360748</v>
+        <v>0.7190489915322813</v>
       </c>
       <c r="D21" t="n">
-        <v>0.609327814031273</v>
+        <v>0.824649283530511</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1650132386094825</v>
+        <v>0.08379843978419817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BENGALWTL</t>
+          <t>DELTALIFE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01597194860349844</v>
+        <v>0.07561316766822147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4713055996315534</v>
+        <v>0.388632313859117</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6339683267960111</v>
+        <v>2.769832188863254</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1656049803862032</v>
+        <v>0.1633843027798317</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>EHL</t>
+          <t>BENGALWTL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03444764892126757</v>
+        <v>0.06023158032209663</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6058994412300485</v>
+        <v>0.465015452021884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7865582176225234</v>
+        <v>2.888337713670587</v>
       </c>
       <c r="E23" t="n">
-        <v>0.324055638460285</v>
+        <v>0.1645298607042942</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IBNSINA</t>
+          <t>EHL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007069059272421766</v>
+        <v>0.1393178626035699</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4697966559174029</v>
+        <v>0.6041289632930786</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2665632567513026</v>
+        <v>3.570592788968222</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05220968130771937</v>
+        <v>0.3226559500372305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>WALTONHIL</t>
+          <t>IBNSINA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01187637180980473</v>
+        <v>0.03030515152589379</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5844133271923974</v>
+        <v>0.4706003796678094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2115586032731094</v>
+        <v>1.209066424887155</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09860025916436817</v>
+        <v>0.05146265186609624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>UNIQUEHRL</t>
+          <t>WALTONHIL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03382567128801861</v>
+        <v>-0.0496507203733982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5827544092068262</v>
+        <v>0.5888557660704561</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6191915697149668</v>
+        <v>0.9563573661801972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.163807649345543</v>
+        <v>0.09793877944279246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>UNILEVERCL</t>
+          <t>UNIQUEHRL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01304571144913306</v>
+        <v>0.141029141430179</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2591811750769609</v>
+        <v>0.5794685033425042</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5586423727616112</v>
+        <v>2.821403228650686</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09649148159035213</v>
+        <v>0.1613189216394892</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>KDSALTD</t>
+          <t>UNILEVERCL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02124270175216034</v>
+        <v>-0.06003713697354095</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4336508899641016</v>
+        <v>0.2604495499036615</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5075241217314312</v>
+        <v>2.536573501112191</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1671720362408985</v>
+        <v>0.09888787656704598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>JHRML</t>
+          <t>KDSALTD</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09789403484022299</v>
+        <v>0.09550446775005078</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3301858231836048</v>
+        <v>0.4304230546124622</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9152162180837783</v>
+        <v>2.295619604937464</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2147727238845759</v>
+        <v>0.165694049801219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ADNTEL</t>
+          <t>JHRML</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04189473134768912</v>
+        <v>0.4227444622695788</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3827840727738596</v>
+        <v>0.3311539224319301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7000644644727796</v>
+        <v>4.145932991489678</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3883541633954137</v>
+        <v>0.2139312295939806</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>ADNTEL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.006191535800342367</v>
+        <v>0.1922302195803633</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4988583452383596</v>
+        <v>0.3878717807656425</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5177021720913639</v>
+        <v>3.193274166938052</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08938425441998503</v>
+        <v>0.3877010336217573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SIMTEX</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01133251815313998</v>
+        <v>0.009430889977264774</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4834132539420783</v>
+        <v>0.4991411996289583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5794821386053124</v>
+        <v>2.363430798453433</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1398929925479702</v>
+        <v>0.08950252868530538</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>APEXFOODS</t>
+          <t>SIMTEX</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05444105491848872</v>
+        <v>0.02565050196765687</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4808440865345769</v>
+        <v>0.4759219873944451</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7919269011369534</v>
+        <v>2.669258016514737</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3486936155836917</v>
+        <v>0.1399633027939575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FORTUNE</t>
+          <t>APEXFOODS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0256555146860071</v>
+        <v>0.2457453417264271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3909758398169211</v>
+        <v>0.4836431141786909</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5231595754958333</v>
+        <v>3.607273073622384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2484870924471906</v>
+        <v>0.3521087442698894</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>INDEXAGRO</t>
+          <t>FORTUNE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.002978096695202381</v>
+        <v>0.1163750337466325</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4199274932301824</v>
+        <v>0.3913409030217004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.581718050752609</v>
+        <v>2.37259125782909</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09412142235800772</v>
+        <v>0.2460345353905922</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AMANFEED</t>
+          <t>INDEXAGRO</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01769132438505762</v>
+        <v>-0.04989808468964609</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5122829099016731</v>
+        <v>0.4451301447425666</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5332546105291154</v>
+        <v>2.57911993357996</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2882314238924919</v>
+        <v>0.09411748402487762</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>SKICL</t>
+          <t>AMANFEED</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0839262632317533</v>
+        <v>-0.07473899551254026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3385178070268697</v>
+        <v>0.5011920794541648</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7556863948345267</v>
+        <v>2.411133807920456</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2111474088239285</v>
+        <v>0.2891029487305297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ACI</t>
+          <t>SKICL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.000400851658327197</v>
+        <v>0.3679004813935062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5625146278608716</v>
+        <v>0.3432497574615242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2721795536009472</v>
+        <v>3.426372234738907</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06698261552086486</v>
+        <v>0.2109059990473916</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ACIFORMULA</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00625771586139604</v>
+        <v>-0.007409021501504159</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5031060981873214</v>
+        <v>0.5669670137632787</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4408664370492797</v>
+        <v>1.23065993185232</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06154815193748095</v>
+        <v>0.0670851226365345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>EXIMBANK</t>
+          <t>ACIFORMULA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.002138827387020643</v>
+        <v>0.01693803037474472</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5026779733311746</v>
+        <v>0.5034118854182381</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2310046605304765</v>
+        <v>1.996071504957383</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09243796023272054</v>
+        <v>0.06100048965022704</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>IFILISLMF1</t>
+          <t>EXIMBANK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.002761369937808542</v>
+        <v>-0.007797588426208152</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4739599818267394</v>
+        <v>0.5159021920008924</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3125402711377219</v>
+        <v>1.044795575109014</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04024591790824537</v>
+        <v>0.0926271976222993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AIBL1STIMF</t>
+          <t>IFILISLMF1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.0115163095334896</v>
+        <v>-0.006357780716271053</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4249728655669395</v>
+        <v>0.4775879461872391</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1946011773023534</v>
+        <v>1.415953229241488</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09416072109146312</v>
+        <v>0.0402931559843942</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>EXIM1STMF</t>
+          <t>AIBL1STIMF</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.01109665800925568</v>
+        <v>-0.04553720358852453</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6364454014058804</v>
+        <v>0.4223239848198141</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3575631832035486</v>
+        <v>0.8771679215748776</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1389273199405706</v>
+        <v>0.0940871699621635</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RECKITTBEN</t>
+          <t>EXIM1STMF</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.005815903023764328</v>
+        <v>-0.03885376683945015</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5902138311706845</v>
+        <v>0.6383915387197958</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2202964518151829</v>
+        <v>1.611674503947476</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07836322939846488</v>
+        <v>0.1388196011376104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
+          <t>RECKITTBEN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.02667274563896026</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5985218973343482</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.000112060289442</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.07771600437364189</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>JMISMDL</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>-0.011043144800542</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4848253665546084</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5538092716125815</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1611839577230219</v>
+      <c r="B46" t="n">
+        <v>-0.04862774278670016</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4882153521599051</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.514337744710879</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1620548983003801</v>
       </c>
     </row>
   </sheetData>
